--- a/E-R Tables.xlsx
+++ b/E-R Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ceu365-my.sharepoint.com/personal/amalia_rialplaza_usp_ceu_es/Documents/2°/2º Semestre/Bases de Datos/Proyect/IDSw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1225" documentId="8_{61BEFE8B-BC2E-41F6-814C-72C3817A851C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{249EE560-A6BA-43BF-9C58-EB64D789D596}"/>
+  <xr:revisionPtr revIDLastSave="1251" documentId="8_{61BEFE8B-BC2E-41F6-814C-72C3817A851C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6160CA6-47EC-4060-BA9F-CEDAA52826B6}"/>
   <bookViews>
-    <workbookView xWindow="14388" yWindow="0" windowWidth="8748" windowHeight="12336" xr2:uid="{3F75AC25-16E0-4DDB-BA34-A14B622AD78F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3F75AC25-16E0-4DDB-BA34-A14B622AD78F}"/>
   </bookViews>
   <sheets>
     <sheet name="IDSw" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="129">
   <si>
     <t>Disease</t>
   </si>
@@ -68,12 +68,6 @@
     <t>Virus (1)</t>
   </si>
   <si>
-    <t xml:space="preserve">Development Graph </t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>Symptom</t>
   </si>
   <si>
@@ -242,9 +236,6 @@
     <t>Cough</t>
   </si>
   <si>
-    <t>Stuffy/ runny  nose</t>
-  </si>
-  <si>
     <t>SARS-CoV-2 virus</t>
   </si>
   <si>
@@ -285,9 +276,6 @@
   </si>
   <si>
     <t>Clostridium tetani</t>
-  </si>
-  <si>
-    <t>Siezures</t>
   </si>
   <si>
     <r>
@@ -314,9 +302,6 @@
     <t>Development Period (days)</t>
   </si>
   <si>
-    <t>Convalescense Period (days)</t>
-  </si>
-  <si>
     <t>% Infected</t>
   </si>
   <si>
@@ -392,9 +377,6 @@
     <t>Immunity Countdown</t>
   </si>
   <si>
-    <t>lo inserta el researcher</t>
-  </si>
-  <si>
     <t>Lyssavirus</t>
   </si>
   <si>
@@ -438,6 +420,21 @@
   </si>
   <si>
     <t>IDvirtual_person</t>
+  </si>
+  <si>
+    <t>Stuffy nose</t>
+  </si>
+  <si>
+    <t>Stuffy  nose</t>
+  </si>
+  <si>
+    <t>Seizures</t>
+  </si>
+  <si>
+    <t>Convalescence Period (days)</t>
+  </si>
+  <si>
+    <t>Inserted by researcher</t>
   </si>
 </sst>
 </file>
@@ -605,7 +602,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -652,9 +649,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -668,9 +662,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -729,6 +720,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1077,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B747F3-0A34-43A6-91D2-0C931A04E494}">
   <dimension ref="A1:O142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1091,7 +1091,7 @@
     <col min="6" max="6" width="26.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.21875" customWidth="1"/>
+    <col min="9" max="9" width="26" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
     <col min="11" max="11" width="10.6640625" customWidth="1"/>
     <col min="12" max="12" width="10.21875" customWidth="1"/>
@@ -1106,8 +1106,8 @@
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="43" t="s">
-        <v>127</v>
+      <c r="C1" s="41" t="s">
+        <v>121</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -1131,15 +1131,14 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7"/>
+      <c r="I2" s="7"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="42" t="s">
-        <v>17</v>
+      <c r="L2" s="40" t="s">
+        <v>15</v>
       </c>
       <c r="M2" s="7"/>
       <c r="O2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -1149,23 +1148,22 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="9"/>
+        <v>85</v>
+      </c>
+      <c r="I3" s="9"/>
       <c r="K3" s="4"/>
       <c r="L3" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M3" s="9"/>
       <c r="O3" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -1173,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>2</v>
@@ -1182,32 +1180,29 @@
         <v>3</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="14" t="s">
+      <c r="I4" s="14" t="s">
         <v>5</v>
       </c>
       <c r="K4" s="15"/>
       <c r="L4" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -1215,12 +1210,12 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" s="4">
         <v>1.3</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="43">
         <v>1.5E-3</v>
       </c>
       <c r="E5" s="4">
@@ -1235,11 +1230,8 @@
       <c r="H5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>48</v>
+      <c r="I5" s="18" t="s">
+        <v>46</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="8">
@@ -1254,31 +1246,28 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" s="4">
         <v>2.5</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="43">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <v>3.5</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="19">
         <v>3</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="19">
         <v>14</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>56</v>
+        <v>48</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>54</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="8">
@@ -1298,26 +1287,23 @@
       <c r="C7" s="4">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="42">
         <v>0.5</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <v>14</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="19">
         <v>61</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="19">
         <v>4380</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>51</v>
+      <c r="I7" s="18" t="s">
+        <v>49</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="8">
@@ -1332,31 +1318,28 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C8" s="4">
         <v>2.5</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="43">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <v>5</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="19">
         <v>10</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="19">
         <v>14</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>69</v>
+      <c r="I8" s="18" t="s">
+        <v>66</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="8">
@@ -1371,31 +1354,28 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C9" s="4">
         <v>4</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="43">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="19">
         <v>3</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="19">
         <v>5</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="19">
         <v>12</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>84</v>
+        <v>48</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>80</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="8">
@@ -1410,31 +1390,28 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C10" s="4">
         <v>2</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="42">
         <v>0.5</v>
       </c>
-      <c r="E10" s="20">
-        <v>4</v>
-      </c>
-      <c r="F10" s="20">
-        <v>4</v>
-      </c>
-      <c r="G10" s="20">
+      <c r="E10" s="19">
+        <v>4</v>
+      </c>
+      <c r="F10" s="19">
+        <v>4</v>
+      </c>
+      <c r="G10" s="19">
         <v>14</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="19" t="s">
-        <v>78</v>
+        <v>48</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>75</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="8">
@@ -1449,31 +1426,28 @@
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="43">
         <v>0.995</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="19">
         <v>61</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="19">
         <v>1</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="19">
         <v>2</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>115</v>
+      <c r="I11" s="18" t="s">
+        <v>109</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="8">
@@ -1488,31 +1462,28 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="18">
+        <v>50</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="42">
         <v>0.15</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="19">
         <v>10</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="19">
         <v>5</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="19">
         <v>18</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>82</v>
+        <v>48</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="8">
@@ -1527,31 +1498,28 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C13" s="4">
         <v>9</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="43">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="19">
         <v>15</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="19">
         <v>1.5</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="19">
         <v>13</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="19" t="s">
-        <v>81</v>
+      <c r="I13" s="18" t="s">
+        <v>78</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="8">
@@ -1566,31 +1534,28 @@
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C14" s="4">
         <v>5</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="42">
         <v>0.1</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="19">
         <v>28</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="19">
         <v>62</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="19">
         <v>210</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>76</v>
+        <v>48</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>73</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="8">
@@ -1605,31 +1570,28 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C15" s="4">
         <v>2.5</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="43">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="19">
         <v>3</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="19">
         <v>5</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="19">
         <v>7</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>75</v>
+      <c r="I15" s="18" t="s">
+        <v>72</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="8">
@@ -1649,7 +1611,7 @@
       <c r="C16" s="4">
         <v>2</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="42">
         <v>0.75</v>
       </c>
       <c r="E16" s="4">
@@ -1664,11 +1626,8 @@
       <c r="H16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J16" s="19" t="s">
-        <v>80</v>
+      <c r="I16" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="8">
@@ -1679,35 +1638,32 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="22">
+      <c r="A17" s="21">
         <v>13</v>
       </c>
-      <c r="B17" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="23">
+      <c r="B17" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="22">
         <v>3.5</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="44">
         <v>0.08</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="22">
         <v>35</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="22">
         <v>12</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="22">
         <v>21</v>
       </c>
-      <c r="H17" s="23" t="s">
-        <v>91</v>
+      <c r="H17" s="22" t="s">
+        <v>86</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" s="25" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="8">
@@ -1757,7 +1713,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
@@ -1769,10 +1725,10 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="22">
+      <c r="L20" s="21">
         <v>1</v>
       </c>
-      <c r="M20" s="26">
+      <c r="M20" s="24">
         <v>22</v>
       </c>
     </row>
@@ -1782,7 +1738,7 @@
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -1801,17 +1757,17 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="25" t="s">
         <v>13</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>15</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -1831,10 +1787,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="8"/>
@@ -1842,7 +1798,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="J23" s="9"/>
       <c r="K23" s="4"/>
@@ -1858,29 +1814,29 @@
         <v>2</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D24" s="4"/>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="J24" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="8">
@@ -1895,22 +1851,22 @@
         <v>3</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="8">
         <v>9</v>
       </c>
-      <c r="F25" s="29">
+      <c r="F25" s="27">
         <v>0.44440000000000002</v>
       </c>
-      <c r="G25" s="29">
+      <c r="G25" s="27">
         <v>0.33339999999999997</v>
       </c>
-      <c r="H25" s="29">
+      <c r="H25" s="27">
         <v>0.22220000000000001</v>
       </c>
       <c r="I25" s="4">
@@ -1932,22 +1888,22 @@
         <v>4</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="8">
         <v>7</v>
       </c>
-      <c r="F26" s="29">
+      <c r="F26" s="27">
         <v>0.42857000000000001</v>
       </c>
-      <c r="G26" s="29">
+      <c r="G26" s="27">
         <v>0.28570000000000001</v>
       </c>
-      <c r="H26" s="29">
+      <c r="H26" s="27">
         <v>0.28570000000000001</v>
       </c>
       <c r="I26" s="4">
@@ -1969,22 +1925,22 @@
         <v>5</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="8">
         <v>6</v>
       </c>
-      <c r="F27" s="30">
+      <c r="F27" s="28">
         <v>0.5</v>
       </c>
-      <c r="G27" s="29">
+      <c r="G27" s="27">
         <v>0.33329999999999999</v>
       </c>
-      <c r="H27" s="31">
+      <c r="H27" s="29">
         <v>0.16669999999999999</v>
       </c>
       <c r="I27" s="4">
@@ -2006,28 +1962,28 @@
         <v>6</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="22">
+      <c r="E28" s="21">
         <v>6</v>
       </c>
-      <c r="F28" s="32">
+      <c r="F28" s="30">
         <v>0.16669999999999999</v>
       </c>
-      <c r="G28" s="33">
+      <c r="G28" s="31">
         <v>0.5</v>
       </c>
-      <c r="H28" s="32">
+      <c r="H28" s="30">
         <v>0.33329999999999999</v>
       </c>
-      <c r="I28" s="23">
+      <c r="I28" s="22">
         <v>130</v>
       </c>
-      <c r="J28" s="26">
+      <c r="J28" s="24">
         <v>13</v>
       </c>
       <c r="K28" s="4"/>
@@ -2043,10 +1999,10 @@
         <v>7</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -2068,10 +2024,10 @@
         <v>8</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -2093,10 +2049,10 @@
         <v>9</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -2118,10 +2074,10 @@
         <v>10</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -2143,10 +2099,10 @@
         <v>11</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -2168,10 +2124,10 @@
         <v>12</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -2181,10 +2137,10 @@
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="22">
+      <c r="L34" s="21">
         <v>2</v>
       </c>
-      <c r="M34" s="26">
+      <c r="M34" s="24">
         <v>22</v>
       </c>
     </row>
@@ -2193,14 +2149,14 @@
         <v>13</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -2220,18 +2176,18 @@
         <v>14</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="8"/>
       <c r="F36" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="9"/>
@@ -2245,30 +2201,30 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="22">
+      <c r="A37" s="21">
         <v>15</v>
       </c>
-      <c r="B37" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>95</v>
+      <c r="B37" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>90</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I37" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -2284,17 +2240,17 @@
         <v>16</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="8">
         <v>1</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G38" s="4">
         <v>20.5</v>
@@ -2319,17 +2275,17 @@
         <v>17</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="8">
         <v>2</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G39" s="4">
         <v>0</v>
@@ -2354,17 +2310,17 @@
         <v>18</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="8">
         <v>3</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G40" s="4">
         <v>0</v>
@@ -2389,17 +2345,17 @@
         <v>19</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="8">
         <v>4</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G41" s="4">
         <v>0</v>
@@ -2424,17 +2380,17 @@
         <v>20</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="8">
         <v>5</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G42" s="4">
         <v>0</v>
@@ -2447,10 +2403,10 @@
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
-      <c r="L42" s="22">
+      <c r="L42" s="21">
         <v>3</v>
       </c>
-      <c r="M42" s="26">
+      <c r="M42" s="24">
         <v>16</v>
       </c>
     </row>
@@ -2459,17 +2415,17 @@
         <v>21</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="8">
         <v>6</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G43" s="4">
         <v>20.5</v>
@@ -2494,17 +2450,17 @@
         <v>22</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="8">
         <v>7</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G44" s="4">
         <v>20.5</v>
@@ -2529,17 +2485,17 @@
         <v>23</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="8">
         <v>8</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G45" s="4">
         <v>20.5</v>
@@ -2564,25 +2520,25 @@
         <v>24</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D46" s="4"/>
-      <c r="E46" s="22">
+      <c r="E46" s="21">
         <v>9</v>
       </c>
-      <c r="F46" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="G46" s="23">
+      <c r="F46" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="G46" s="22">
         <v>0</v>
       </c>
-      <c r="H46" s="23">
+      <c r="H46" s="22">
         <v>0</v>
       </c>
-      <c r="I46" s="26">
+      <c r="I46" s="24">
         <v>1</v>
       </c>
       <c r="J46" s="4"/>
@@ -2599,17 +2555,17 @@
         <v>25</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D47" s="4"/>
-      <c r="E47" s="34">
+      <c r="E47" s="32">
         <v>10</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G47" s="6">
         <v>29</v>
@@ -2634,17 +2590,17 @@
         <v>26</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="8">
         <v>11</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G48" s="4">
         <v>0</v>
@@ -2669,17 +2625,17 @@
         <v>27</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="8">
         <v>12</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G49" s="4">
         <v>0</v>
@@ -2704,17 +2660,17 @@
         <v>28</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="8">
         <v>13</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G50" s="4">
         <v>0</v>
@@ -2739,17 +2695,17 @@
         <v>29</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="8">
         <v>14</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G51" s="4">
         <v>0</v>
@@ -2770,21 +2726,21 @@
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" s="22">
+      <c r="A52" s="21">
         <v>30</v>
       </c>
-      <c r="B52" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C52" s="26" t="s">
-        <v>96</v>
+      <c r="B52" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>91</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="8">
         <v>15</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G52" s="4">
         <v>29</v>
@@ -2809,19 +2765,19 @@
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
-      <c r="E53" s="22">
+      <c r="E53" s="21">
         <v>16</v>
       </c>
-      <c r="F53" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="G53" s="23">
+      <c r="F53" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G53" s="22">
         <v>29</v>
       </c>
-      <c r="H53" s="23">
+      <c r="H53" s="22">
         <v>0</v>
       </c>
-      <c r="I53" s="26">
+      <c r="I53" s="24">
         <v>4</v>
       </c>
       <c r="J53" s="4"/>
@@ -2842,7 +2798,7 @@
         <v>17</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G54" s="4">
         <v>22</v>
@@ -2871,7 +2827,7 @@
         <v>18</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G55" s="4">
         <v>22</v>
@@ -2900,7 +2856,7 @@
         <v>19</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G56" s="4">
         <v>0</v>
@@ -2922,7 +2878,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="7"/>
@@ -2931,7 +2887,7 @@
         <v>20</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G57" s="4">
         <v>22</v>
@@ -2960,7 +2916,7 @@
         <v>21</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G58" s="4">
         <v>0</v>
@@ -2973,37 +2929,37 @@
       </c>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
-      <c r="L58" s="22">
-        <v>4</v>
-      </c>
-      <c r="M58" s="26">
+      <c r="L58" s="21">
+        <v>4</v>
+      </c>
+      <c r="M58" s="24">
         <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D59" s="4"/>
-      <c r="E59" s="22">
+      <c r="E59" s="21">
         <v>22</v>
       </c>
-      <c r="F59" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="G59" s="23">
+      <c r="F59" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G59" s="22">
         <v>0</v>
       </c>
-      <c r="H59" s="23">
+      <c r="H59" s="22">
         <v>98</v>
       </c>
-      <c r="I59" s="26">
+      <c r="I59" s="24">
         <v>6</v>
       </c>
       <c r="J59" s="4"/>
@@ -3020,7 +2976,7 @@
         <v>1</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C60" s="9">
         <v>3</v>
@@ -3030,7 +2986,7 @@
         <v>23</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G60" s="4">
         <v>0</v>
@@ -3055,7 +3011,7 @@
         <v>2</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C61" s="9">
         <v>3</v>
@@ -3065,7 +3021,7 @@
         <v>24</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G61" s="4">
         <v>98</v>
@@ -3090,7 +3046,7 @@
         <v>3</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C62" s="9">
         <v>1</v>
@@ -3100,7 +3056,7 @@
         <v>25</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G62" s="4">
         <v>0</v>
@@ -3125,7 +3081,7 @@
         <v>4</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C63" s="9">
         <v>7</v>
@@ -3135,7 +3091,7 @@
         <v>26</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G63" s="4">
         <v>0</v>
@@ -3160,7 +3116,7 @@
         <v>5</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C64" s="9">
         <v>3</v>
@@ -3170,7 +3126,7 @@
         <v>27</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G64" s="4">
         <v>0</v>
@@ -3195,25 +3151,25 @@
         <v>6</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C65" s="9">
         <v>4</v>
       </c>
       <c r="D65" s="4"/>
-      <c r="E65" s="22">
+      <c r="E65" s="21">
         <v>28</v>
       </c>
-      <c r="F65" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="G65" s="23">
+      <c r="F65" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G65" s="22">
         <v>0</v>
       </c>
-      <c r="H65" s="23">
+      <c r="H65" s="22">
         <v>0</v>
       </c>
-      <c r="I65" s="26">
+      <c r="I65" s="24">
         <v>13</v>
       </c>
       <c r="J65" s="4"/>
@@ -3230,7 +3186,7 @@
         <v>7</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C66" s="9">
         <v>1</v>
@@ -3255,7 +3211,7 @@
         <v>8</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C67" s="9">
         <v>10</v>
@@ -3280,7 +3236,7 @@
         <v>9</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C68" s="9">
         <v>8</v>
@@ -3305,7 +3261,7 @@
         <v>10</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C69" s="9">
         <v>6</v>
@@ -3326,13 +3282,13 @@
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A70" s="22">
+      <c r="A70" s="21">
         <v>11</v>
       </c>
-      <c r="B70" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="C70" s="26">
+      <c r="B70" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C70" s="24">
         <v>2</v>
       </c>
       <c r="D70" s="4"/>
@@ -3343,10 +3299,10 @@
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
-      <c r="L70" s="22">
+      <c r="L70" s="21">
         <v>5</v>
       </c>
-      <c r="M70" s="26">
+      <c r="M70" s="24">
         <v>26</v>
       </c>
     </row>
@@ -3358,7 +3314,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H71" s="7"/>
       <c r="I71" s="4"/>
@@ -3392,7 +3348,7 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -3400,10 +3356,10 @@
       <c r="E73" s="7"/>
       <c r="F73" s="4"/>
       <c r="G73" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H73" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
@@ -3440,19 +3396,19 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B75" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D75" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E75" s="17" t="s">
         <v>35</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D75" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="E75" s="17" t="s">
-        <v>37</v>
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="8">
@@ -3476,9 +3432,9 @@
         <v>1</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C76" s="36">
+        <v>52</v>
+      </c>
+      <c r="C76" s="34">
         <v>36699</v>
       </c>
       <c r="D76" s="4">
@@ -3509,9 +3465,9 @@
         <v>2</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C77" s="36">
+        <v>97</v>
+      </c>
+      <c r="C77" s="34">
         <v>45177</v>
       </c>
       <c r="D77" s="4">
@@ -3542,9 +3498,9 @@
         <v>3</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C78" s="36">
+        <v>53</v>
+      </c>
+      <c r="C78" s="34">
         <v>45374</v>
       </c>
       <c r="D78" s="4">
@@ -3575,9 +3531,9 @@
         <v>4</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C79" s="36">
+        <v>50</v>
+      </c>
+      <c r="C79" s="34">
         <v>41130</v>
       </c>
       <c r="D79" s="4">
@@ -3608,9 +3564,9 @@
         <v>5</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C80" s="36">
+        <v>44</v>
+      </c>
+      <c r="C80" s="34">
         <v>45323</v>
       </c>
       <c r="D80" s="4">
@@ -3629,10 +3585,10 @@
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
-      <c r="L80" s="22">
+      <c r="L80" s="21">
         <v>6</v>
       </c>
-      <c r="M80" s="26">
+      <c r="M80" s="24">
         <v>30</v>
       </c>
     </row>
@@ -3641,9 +3597,9 @@
         <v>6</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C81" s="36">
+        <v>67</v>
+      </c>
+      <c r="C81" s="34">
         <v>43957</v>
       </c>
       <c r="D81" s="4">
@@ -3674,9 +3630,9 @@
         <v>7</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C82" s="36">
+        <v>76</v>
+      </c>
+      <c r="C82" s="34">
         <v>44488</v>
       </c>
       <c r="D82" s="4">
@@ -3707,9 +3663,9 @@
         <v>8</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C83" s="36">
+        <v>45</v>
+      </c>
+      <c r="C83" s="34">
         <v>39219</v>
       </c>
       <c r="D83" s="4">
@@ -3740,9 +3696,9 @@
         <v>9</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C84" s="36">
+        <v>63</v>
+      </c>
+      <c r="C84" s="34">
         <v>45364</v>
       </c>
       <c r="D84" s="4">
@@ -3752,10 +3708,10 @@
         <v>6</v>
       </c>
       <c r="F84" s="4"/>
-      <c r="G84" s="22">
+      <c r="G84" s="21">
         <v>13</v>
       </c>
-      <c r="H84" s="26">
+      <c r="H84" s="24">
         <v>11</v>
       </c>
       <c r="I84" s="4"/>
@@ -3769,19 +3725,19 @@
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A85" s="22">
+      <c r="A85" s="21">
         <v>10</v>
       </c>
-      <c r="B85" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C85" s="37">
+      <c r="B85" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C85" s="35">
         <v>41604</v>
       </c>
-      <c r="D85" s="23">
+      <c r="D85" s="22">
         <v>5</v>
       </c>
-      <c r="E85" s="26">
+      <c r="E85" s="24">
         <v>5</v>
       </c>
       <c r="F85" s="4"/>
@@ -3856,15 +3812,15 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B89" s="38"/>
+        <v>37</v>
+      </c>
+      <c r="B89" s="36"/>
       <c r="C89" s="15"/>
       <c r="D89" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E89" s="39"/>
-      <c r="F89" s="38"/>
+        <v>40</v>
+      </c>
+      <c r="E89" s="37"/>
+      <c r="F89" s="36"/>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
@@ -3889,29 +3845,29 @@
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
-      <c r="L90" s="22">
+      <c r="L90" s="21">
         <v>7</v>
       </c>
-      <c r="M90" s="26">
+      <c r="M90" s="24">
         <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C91" s="15"/>
       <c r="D91" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F91" s="14" t="s">
         <v>43</v>
-      </c>
-      <c r="E91" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F91" s="14" t="s">
-        <v>45</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
@@ -3937,9 +3893,9 @@
         <v>1</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F92" s="40">
+        <v>99</v>
+      </c>
+      <c r="F92" s="38">
         <v>38171</v>
       </c>
       <c r="G92" s="4"/>
@@ -3966,9 +3922,9 @@
         <v>2</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F93" s="40">
+        <v>100</v>
+      </c>
+      <c r="F93" s="38">
         <v>37097</v>
       </c>
       <c r="G93" s="4"/>
@@ -3995,9 +3951,9 @@
         <v>3</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F94" s="40">
+        <v>101</v>
+      </c>
+      <c r="F94" s="38">
         <v>36516</v>
       </c>
       <c r="G94" s="4"/>
@@ -4024,9 +3980,9 @@
         <v>4</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F95" s="40">
+        <v>102</v>
+      </c>
+      <c r="F95" s="38">
         <v>33395</v>
       </c>
       <c r="G95" s="4"/>
@@ -4053,9 +4009,9 @@
         <v>5</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F96" s="40">
+        <v>103</v>
+      </c>
+      <c r="F96" s="38">
         <v>22882</v>
       </c>
       <c r="G96" s="4"/>
@@ -4082,9 +4038,9 @@
         <v>6</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F97" s="40">
+        <v>104</v>
+      </c>
+      <c r="F97" s="38">
         <v>26375</v>
       </c>
       <c r="G97" s="4"/>
@@ -4111,9 +4067,9 @@
         <v>7</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F98" s="40">
+        <v>98</v>
+      </c>
+      <c r="F98" s="38">
         <v>38121</v>
       </c>
       <c r="G98" s="4"/>
@@ -4121,28 +4077,28 @@
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
-      <c r="L98" s="22">
+      <c r="L98" s="21">
         <v>8</v>
       </c>
-      <c r="M98" s="26">
+      <c r="M98" s="24">
         <v>29</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A99" s="22">
+      <c r="A99" s="21">
         <v>8</v>
       </c>
-      <c r="B99" s="26">
+      <c r="B99" s="24">
         <v>8</v>
       </c>
       <c r="C99" s="4"/>
-      <c r="D99" s="22">
+      <c r="D99" s="21">
         <v>8</v>
       </c>
-      <c r="E99" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="F99" s="41">
+      <c r="E99" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F99" s="39">
         <v>37913</v>
       </c>
       <c r="G99" s="4"/>
@@ -4245,10 +4201,10 @@
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
-      <c r="L104" s="22">
+      <c r="L104" s="21">
         <v>9</v>
       </c>
-      <c r="M104" s="26">
+      <c r="M104" s="24">
         <v>23</v>
       </c>
     </row>
@@ -4359,10 +4315,10 @@
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
-      <c r="L110" s="22">
+      <c r="L110" s="21">
         <v>10</v>
       </c>
-      <c r="M110" s="26">
+      <c r="M110" s="24">
         <v>19</v>
       </c>
     </row>
@@ -4625,10 +4581,10 @@
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
       <c r="K124" s="4"/>
-      <c r="L124" s="22">
+      <c r="L124" s="21">
         <v>11</v>
       </c>
-      <c r="M124" s="26">
+      <c r="M124" s="24">
         <v>26</v>
       </c>
     </row>
@@ -4815,10 +4771,10 @@
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
       <c r="K134" s="4"/>
-      <c r="L134" s="22">
+      <c r="L134" s="21">
         <v>12</v>
       </c>
-      <c r="M134" s="26">
+      <c r="M134" s="24">
         <v>22</v>
       </c>
     </row>
@@ -4967,10 +4923,10 @@
       <c r="I142" s="4"/>
       <c r="J142" s="4"/>
       <c r="K142" s="4"/>
-      <c r="L142" s="22">
+      <c r="L142" s="21">
         <v>13</v>
       </c>
-      <c r="M142" s="26">
+      <c r="M142" s="24">
         <v>23</v>
       </c>
     </row>
@@ -4990,14 +4946,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="bfd064f1-60da-4f0f-a847-89d2c1a6c329" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B2C7AFC8D3671240B5A22E09B307AEF3" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="18f5372394ed4318cdbf062904967825">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="bfd064f1-60da-4f0f-a847-89d2c1a6c329" xmlns:ns4="44e2c5d4-dcdf-4cd8-88c2-2d4d1c90d35d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="284b2db933a0d2bc0e19e591f6d49d7f" ns3:_="" ns4:_="">
     <xsd:import namespace="bfd064f1-60da-4f0f-a847-89d2c1a6c329"/>
@@ -5230,6 +5178,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="bfd064f1-60da-4f0f-a847-89d2c1a6c329" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{625651FB-5DE0-467D-880A-FE0D31657576}">
   <ds:schemaRefs>
@@ -5239,23 +5195,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B93F357-B08C-46F6-8993-B6096D7632F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bfd064f1-60da-4f0f-a847-89d2c1a6c329"/>
-    <ds:schemaRef ds:uri="44e2c5d4-dcdf-4cd8-88c2-2d4d1c90d35d"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42502E2E-4434-47F6-BDEB-BB942FCD563D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5272,4 +5211,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B93F357-B08C-46F6-8993-B6096D7632F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bfd064f1-60da-4f0f-a847-89d2c1a6c329"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="44e2c5d4-dcdf-4cd8-88c2-2d4d1c90d35d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>